--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/ALASKA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/ALASKA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C20">
@@ -659,7 +659,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C21">
@@ -690,7 +690,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C23">
@@ -703,7 +703,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C24">
@@ -742,7 +742,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C27">
@@ -825,7 +825,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C33">
@@ -838,7 +838,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C34">
@@ -864,7 +864,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C36">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C46">
@@ -1027,7 +1027,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C47">
@@ -1040,7 +1040,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C48">
@@ -1066,7 +1066,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C50">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C63">
@@ -1387,7 +1387,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C72">
@@ -1420,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <v>0.09195402298850575</v>
+        <v>0.09195402298850576</v>
       </c>
     </row>
     <row r="75">
@@ -1434,76 +1434,6 @@
       </c>
       <c r="D75">
         <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/ALASKA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/ALASKA_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Comala</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Valle De Guadalupe</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Mariscala De Juárez</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1108,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -1121,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -1134,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1165,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Venado</t>
@@ -1178,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1209,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1240,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1271,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -1284,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1315,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1346,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1359,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -1372,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Luis Moya</t>
@@ -1385,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -1398,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -1411,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
